--- a/medicine/Enfance/Le_Prisonnier_de_l'eau/Le_Prisonnier_de_l'eau.xlsx
+++ b/medicine/Enfance/Le_Prisonnier_de_l'eau/Le_Prisonnier_de_l'eau.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Prisonnier_de_l%27eau</t>
+          <t>Le_Prisonnier_de_l'eau</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Prisonnier de l'eau est le vingtième roman de la série Les Conquérants de l'impossible par Philippe Ébly, édité en décembre 2007 chez Temps Impossibles.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Prisonnier_de_l%27eau</t>
+          <t>Le_Prisonnier_de_l'eau</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Résumé</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le professeur Auvernaux a découvert un nouveau tunnel temporel en 1320. Un tunnel qui semble s'activer alors que la technologie nécessaire n'existe pas à cette époque reculée. Il décide de faire appel aux Conquérants afin de résoudre cette énigme. Serge, Thibaut, Xolotl et Souhi partent donc en mission au Moyen Âge à la recherche d'un alchimiste.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Prisonnier_de_l%27eau</t>
+          <t>Le_Prisonnier_de_l'eau</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Les différentes éditions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>2007 - Temps Impossibles (français, version originale). Illustré par Fred Grivaud.</t>
         </is>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_Prisonnier_de_l%27eau</t>
+          <t>Le_Prisonnier_de_l'eau</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,7 +589,9 @@
           <t>Commentaires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Onze ans après le dernier inédit, c'est aussi le premier roman publié chez Temps impossibles.
 Il devait être édité par les Éditions Degliame fin 2005, mais le dépôt de bilan de l'éditeur l'en a empêché.
